--- a/02_zillow_rent_index_analysis/outputs/Excel/Q2_state_yoy_growth_wide.xlsx
+++ b/02_zillow_rent_index_analysis/outputs/Excel/Q2_state_yoy_growth_wide.xlsx
@@ -5,22 +5,43 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinqin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qinqin/Desktop/Zillow/02_zillow_rent_index_analysis/outputs/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552819D7-C519-6344-A4FF-7D77212583F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB773BAE-D727-0A48-BEAD-2724AF555E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="500" windowWidth="26760" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="500" windowWidth="30540" windowHeight="15200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$R$12:$S$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$T$12</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$T$2:$T$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$R$12:$S$12</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$T$12</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$T$2:$T$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>AK</t>
   </si>
@@ -206,13 +227,58 @@
   </si>
   <si>
     <t>YoY Rent Growth by State (2016 - 2025)</t>
+  </si>
+  <si>
+    <t>rent_volatility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catrgory </t>
+  </si>
+  <si>
+    <t>most volatile</t>
+  </si>
+  <si>
+    <t>most stable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Insight:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Western states like Montana, Vermont, and Wyoming experienced the highest rent volatility (6–12%),
+ while Ohio, Missouri, and Louisiana showed the most stable rent patterns across 2015–2025.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -245,16 +311,52 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,13 +364,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -305,11 +488,123 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -324,6 +619,82 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -498,6 +869,22 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -531,22 +918,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0"/>
@@ -617,6 +988,9 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF61D835"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -629,20 +1003,1786 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Top &amp; Bottom 5 States by Rent Volatility </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Measured as standard deviation of YoY rent growth (%)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>2015–2025)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet 1'!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rent_volatility</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-1AAE-6C42-A7BC-26BBC80B4819}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$R$3:$R$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>OH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AL</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>UT</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ME</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>WY</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VT</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$S$3:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7499374274527649E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8640804703660196E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9033888199734707E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.060878453475604E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1408418904720637E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1451119599239198E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.416703515045713E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7319406563040946E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2668290007955933E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11768699843228224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AAE-6C42-A7BC-26BBC80B4819}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="830224480"/>
+        <c:axId val="830226192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="830224480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830226192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="830226192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Rent Volatility (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="900">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42951809845147781"/>
+              <c:y val="0.95878575543660283"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="830224480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>11415</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>613595</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>285393</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763438C1-A871-4478-A976-B17D725FEF50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>442360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128427</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>360182</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{433A75F2-1644-2677-1A70-3D0054CCBE3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21147641" y="4562854"/>
+          <a:ext cx="970337" cy="235193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Helvetica Neue Medium"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:sym typeface="Helvetica Neue Medium"/>
+            </a:rPr>
+            <a:t>Most Volatile</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>423524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>305929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>109591</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>98762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F51A2F-AA2B-BD45-9B2E-E4B39CC12775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21128805" y="4743794"/>
+          <a:ext cx="970337" cy="235193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-GB" sz="900" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Helvetica Neue Medium"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:sym typeface="Helvetica Neue Medium"/>
+            </a:rPr>
+            <a:t>Most Stable</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.74634</cdr:x>
+      <cdr:y>0.77616</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92554</cdr:x>
+      <cdr:y>0.875</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0666B6B-418E-35A8-2E59-BB405035783D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5721178" y="3821077"/>
+          <a:ext cx="1373700" cy="486577"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75413</cdr:x>
+      <cdr:y>0.7965</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8213</cdr:x>
+      <cdr:y>0.82319</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6C2B476-F7F8-0BDF-6A4C-195607A3752D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5780886" y="3921212"/>
+          <a:ext cx="514890" cy="131371"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75482</cdr:x>
+      <cdr:y>0.8343</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82128</cdr:x>
+      <cdr:y>0.86087</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EDC8A56-9EBC-8FBE-9EA0-D2A48415EDC3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5786180" y="4107300"/>
+          <a:ext cx="509478" cy="130790"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:sp3d xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="none"/>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-GB" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F689F1A5-D647-6C45-8802-42117807B58D}" name="Table1" displayName="Table1" ref="A2:K52" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{94E71F5C-7A8C-C44D-84AB-87C7CA9F2EC2}" name="State" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{60187982-E7E7-7047-8419-7EF8F76CBC1D}" name="2016" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{AF044322-7CD9-0446-A1D0-8F8416BE8744}" name="2017" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B8BB97C1-E30B-ED40-B3AB-19F08B10D6C0}" name="2018" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{7EC548EA-FAE9-3649-8A5F-1367CDD1716E}" name="2019" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F9A56E31-A9C6-9441-BB45-37A6DEF5CCC4}" name="2020" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{310233C4-7C94-874B-9B95-42A7AEF2B7FB}" name="2021" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{562C5FB4-470B-4D43-9EBD-033F46248EB2}" name="2022" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{8DCA0C2E-F78F-D547-8C65-06479F79443A}" name="2023" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{2EA044E5-F314-A844-89DD-0558031573BD}" name="2024" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{94B181C0-CFA8-C44A-9982-8B2EF7913B05}" name="2025" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F689F1A5-D647-6C45-8802-42117807B58D}" name="Table1" displayName="Table1" ref="A2:L52" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L52">
+    <sortCondition descending="1" ref="L2:L52"/>
+  </sortState>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{94E71F5C-7A8C-C44D-84AB-87C7CA9F2EC2}" name="State" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{60187982-E7E7-7047-8419-7EF8F76CBC1D}" name="2016" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{AF044322-7CD9-0446-A1D0-8F8416BE8744}" name="2017" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{B8BB97C1-E30B-ED40-B3AB-19F08B10D6C0}" name="2018" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{7EC548EA-FAE9-3649-8A5F-1367CDD1716E}" name="2019" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{F9A56E31-A9C6-9441-BB45-37A6DEF5CCC4}" name="2020" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{310233C4-7C94-874B-9B95-42A7AEF2B7FB}" name="2021" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{562C5FB4-470B-4D43-9EBD-033F46248EB2}" name="2022" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{8DCA0C2E-F78F-D547-8C65-06479F79443A}" name="2023" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{2EA044E5-F314-A844-89DD-0558031573BD}" name="2024" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{94B181C0-CFA8-C44A-9982-8B2EF7913B05}" name="2025" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{63B5D26E-FD2C-464D-A4AB-522B89A7E885}" name="rent_volatility" dataDxfId="1" dataCellStyle="Per cent">
+      <calculatedColumnFormula>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{16C6A7A2-381D-B243-9A93-604A820A17D5}" name="Table2" displayName="Table2" ref="R2:T12" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="R2:T12" xr:uid="{16C6A7A2-381D-B243-9A93-604A820A17D5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T12">
+    <sortCondition ref="S2:S12"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E1D09DAA-5F34-7E4E-83CE-E0ECCFA13A29}" name="State" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4F3DC0EC-FB7C-2144-8655-DA319DC69406}" name="rent_volatility" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{0DF2E9B4-CF38-AD44-BB4C-A7BE3BAE9AF7}" name="catrgory " dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1723,10 +3863,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="64" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1737,11 +3877,14 @@
     <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
     <col min="6" max="11" width="7.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.33203125" style="1"/>
+    <col min="12" max="12" width="14" style="18" customWidth="1"/>
+    <col min="13" max="18" width="8.33203125" style="1"/>
+    <col min="19" max="19" width="15.33203125" style="16" customWidth="1"/>
+    <col min="20" max="20" width="11.6640625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
         <v>61</v>
       </c>
@@ -1756,7 +3899,7 @@
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
     </row>
-    <row r="2" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>60</v>
       </c>
@@ -1790,615 +3933,811 @@
       <c r="K2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
+      <c r="R2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6">
-        <v>-1.1100000000000001</v>
+        <v>2.48</v>
       </c>
       <c r="C3" s="6">
-        <v>-1.28</v>
+        <v>-0.45</v>
       </c>
       <c r="D3" s="6">
-        <v>0.55000000000000004</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" s="6">
-        <v>1.17</v>
+        <v>3.75</v>
       </c>
       <c r="F3" s="6">
-        <v>2.19</v>
+        <v>5.33</v>
       </c>
       <c r="G3" s="6">
-        <v>9.51</v>
+        <v>37</v>
       </c>
       <c r="H3" s="6">
-        <v>9.41</v>
+        <v>23.17</v>
       </c>
       <c r="I3" s="6">
-        <v>6.06</v>
+        <v>-0.01</v>
       </c>
       <c r="J3" s="6">
-        <v>3.99</v>
+        <v>2.67</v>
       </c>
       <c r="K3" s="6">
-        <v>7.72</v>
-      </c>
-      <c r="L3" s="6"/>
+        <v>2.68</v>
+      </c>
+      <c r="L3" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>0.11768699843228224</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
+      <c r="R3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="20">
+        <v>1.7499374274527649E-2</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>5.01</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B4" s="9"/>
       <c r="C4" s="6">
-        <v>4.01</v>
+        <v>4.37</v>
       </c>
       <c r="D4" s="6">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="E4" s="6">
-        <v>4.3499999999999996</v>
+        <v>2.38</v>
       </c>
       <c r="F4" s="6">
-        <v>4.37</v>
+        <v>2.95</v>
       </c>
       <c r="G4" s="6">
-        <v>7.43</v>
+        <v>6.7</v>
       </c>
       <c r="H4" s="6">
-        <v>8.85</v>
+        <v>11.65</v>
       </c>
       <c r="I4" s="6">
-        <v>2.3199999999999998</v>
+        <v>7.55</v>
       </c>
       <c r="J4" s="6">
-        <v>4.6100000000000003</v>
+        <v>-11.99</v>
       </c>
       <c r="K4" s="6">
-        <v>2.91</v>
-      </c>
-      <c r="L4" s="6"/>
+        <v>-14.37</v>
+      </c>
+      <c r="L4" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>8.2668290007955933E-2</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
+      <c r="R4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="20">
+        <v>1.8640804703660196E-2</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B5" s="6">
-        <v>2.33</v>
+        <v>5.41</v>
       </c>
       <c r="C5" s="6">
-        <v>2.8</v>
+        <v>-1.83</v>
       </c>
       <c r="D5" s="6">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="E5" s="6">
-        <v>2.98</v>
+        <v>4.83</v>
       </c>
       <c r="F5" s="6">
-        <v>3.97</v>
+        <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>9.7799999999999994</v>
+        <v>3.31</v>
       </c>
       <c r="H5" s="6">
-        <v>9.33</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I5" s="6">
-        <v>3.79</v>
+        <v>7.68</v>
       </c>
       <c r="J5" s="6">
-        <v>0.57999999999999996</v>
+        <v>23.84</v>
       </c>
       <c r="K5" s="6">
-        <v>1.49</v>
-      </c>
-      <c r="L5" s="6"/>
+        <v>7.42</v>
+      </c>
+      <c r="L5" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>6.7319406563040946E-2</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
+      <c r="R5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20">
+        <v>1.9033888199734707E-2</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6">
-        <v>5</v>
+        <v>-11.57</v>
       </c>
       <c r="C6" s="6">
-        <v>6.18</v>
+        <v>-2.66</v>
       </c>
       <c r="D6" s="6">
-        <v>13.74</v>
+        <v>0.3</v>
       </c>
       <c r="E6" s="6">
-        <v>6.45</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F6" s="6">
-        <v>6.51</v>
+        <v>6.73</v>
       </c>
       <c r="G6" s="6">
-        <v>14.9</v>
+        <v>11.65</v>
       </c>
       <c r="H6" s="6">
-        <v>4.63</v>
+        <v>10.71</v>
       </c>
       <c r="I6" s="6">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="J6" s="6">
-        <v>2.29</v>
+        <v>5.6</v>
       </c>
       <c r="K6" s="6">
-        <v>2.34</v>
-      </c>
-      <c r="L6" s="6"/>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="L6" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>6.416703515045713E-2</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
+      <c r="R6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="20">
+        <v>2.060878453475604E-2</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="B7" s="6">
-        <v>4.88</v>
+        <v>5.88</v>
       </c>
       <c r="C7" s="6">
-        <v>6.21</v>
+        <v>6.44</v>
       </c>
       <c r="D7" s="6">
-        <v>5.34</v>
+        <v>5.95</v>
       </c>
       <c r="E7" s="6">
-        <v>4.3899999999999997</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="F7" s="6">
-        <v>3.06</v>
+        <v>6.01</v>
       </c>
       <c r="G7" s="6">
-        <v>9.18</v>
+        <v>15.21</v>
       </c>
       <c r="H7" s="6">
-        <v>7.02</v>
+        <v>3.11</v>
       </c>
       <c r="I7" s="6">
-        <v>0.42</v>
+        <v>1.39</v>
       </c>
       <c r="J7" s="6">
-        <v>2.63</v>
+        <v>1.98</v>
       </c>
       <c r="K7" s="6">
-        <v>2.7</v>
-      </c>
-      <c r="L7" s="6"/>
+        <v>-1.42</v>
+      </c>
+      <c r="L7" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>6.1451119599239198E-2</v>
+      </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
+      <c r="R7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="S7" s="20">
+        <v>2.1408418904720637E-2</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6">
-        <v>15.52</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="C8" s="6">
-        <v>6.42</v>
+        <v>5.7</v>
       </c>
       <c r="D8" s="6">
-        <v>6.73</v>
+        <v>7.14</v>
       </c>
       <c r="E8" s="6">
-        <v>5.3</v>
+        <v>5.53</v>
       </c>
       <c r="F8" s="6">
-        <v>4.3899999999999997</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G8" s="6">
-        <v>9.6999999999999993</v>
+        <v>15.12</v>
       </c>
       <c r="H8" s="6">
-        <v>12.8</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="I8" s="6">
-        <v>7.31</v>
+        <v>3.29</v>
       </c>
       <c r="J8" s="6">
-        <v>6.97</v>
+        <v>-0.24</v>
       </c>
       <c r="K8" s="6">
-        <v>5.73</v>
-      </c>
-      <c r="L8" s="6"/>
+        <v>1.33</v>
+      </c>
+      <c r="L8" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>5.255370586362109E-2</v>
+      </c>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
+      <c r="R8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="20">
+        <v>6.1451119599239198E-2</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6">
-        <v>2.41</v>
+        <v>1.58</v>
       </c>
       <c r="C9" s="6">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="D9" s="6">
-        <v>3.16</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E9" s="6">
-        <v>3.33</v>
+        <v>2.82</v>
       </c>
       <c r="F9" s="6">
-        <v>5.76</v>
+        <v>4.13</v>
       </c>
       <c r="G9" s="6">
-        <v>10.38</v>
+        <v>10.119999999999999</v>
       </c>
       <c r="H9" s="6">
-        <v>10.41</v>
+        <v>8.27</v>
       </c>
       <c r="I9" s="6">
-        <v>7.35</v>
+        <v>-7.34</v>
       </c>
       <c r="J9" s="6">
-        <v>7.13</v>
+        <v>4.59</v>
       </c>
       <c r="K9" s="6">
-        <v>5</v>
-      </c>
-      <c r="L9" s="6"/>
+        <v>12.19</v>
+      </c>
+      <c r="L9" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>5.1387375881630691E-2</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
+      <c r="R9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="20">
+        <v>6.416703515045713E-2</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6">
-        <v>2.29</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="C10" s="6">
-        <v>2.0099999999999998</v>
+        <v>5.92</v>
       </c>
       <c r="D10" s="6">
-        <v>3.08</v>
+        <v>4.58</v>
       </c>
       <c r="E10" s="6">
-        <v>3.29</v>
+        <v>6.66</v>
       </c>
       <c r="F10" s="6">
-        <v>4.7699999999999996</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G10" s="6">
-        <v>14.1</v>
+        <v>11.81</v>
       </c>
       <c r="H10" s="6">
-        <v>10.15</v>
+        <v>3.58</v>
       </c>
       <c r="I10" s="6">
-        <v>4.99</v>
+        <v>-1.32</v>
       </c>
       <c r="J10" s="6">
-        <v>3.99</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="K10" s="6">
-        <v>3.46</v>
-      </c>
-      <c r="L10" s="6"/>
+        <v>7.84</v>
+      </c>
+      <c r="L10" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>4.8374237978494293E-2</v>
+      </c>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
+      <c r="R10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="20">
+        <v>6.7319406563040946E-2</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5.73</v>
+      </c>
+      <c r="C11" s="6">
+        <v>12.19</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7.76</v>
+      </c>
+      <c r="E11" s="6">
+        <v>7.23</v>
+      </c>
+      <c r="F11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="C11" s="6">
-        <v>5.7</v>
-      </c>
-      <c r="D11" s="6">
-        <v>7.14</v>
-      </c>
-      <c r="E11" s="6">
-        <v>5.53</v>
-      </c>
-      <c r="F11" s="6">
-        <v>4.1900000000000004</v>
-      </c>
       <c r="G11" s="6">
-        <v>15.12</v>
+        <v>12.33</v>
       </c>
       <c r="H11" s="6">
-        <v>16.850000000000001</v>
+        <v>3.36</v>
       </c>
       <c r="I11" s="6">
-        <v>3.29</v>
+        <v>1.45</v>
       </c>
       <c r="J11" s="6">
-        <v>-0.24</v>
+        <v>-0.01</v>
       </c>
       <c r="K11" s="6">
-        <v>1.33</v>
-      </c>
-      <c r="L11" s="6"/>
+        <v>14.08</v>
+      </c>
+      <c r="L11" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>4.4884023883782959E-2</v>
+      </c>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
+      <c r="R11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="20">
+        <v>8.2668290007955933E-2</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B12" s="6">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="C12" s="6">
-        <v>0.33</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="D12" s="6">
-        <v>4.7300000000000004</v>
+        <v>4.49</v>
       </c>
       <c r="E12" s="6">
-        <v>5.18</v>
+        <v>1.53</v>
       </c>
       <c r="F12" s="6">
-        <v>5.05</v>
+        <v>3.14</v>
       </c>
       <c r="G12" s="6">
-        <v>12.34</v>
+        <v>10.54</v>
       </c>
       <c r="H12" s="6">
-        <v>13.67</v>
+        <v>13.39</v>
       </c>
       <c r="I12" s="6">
-        <v>5.08</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="J12" s="6">
-        <v>3.32</v>
+        <v>-2.59</v>
       </c>
       <c r="K12" s="6">
-        <v>0.91</v>
-      </c>
-      <c r="L12" s="6"/>
+        <v>3.89</v>
+      </c>
+      <c r="L12" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>4.3199837962659089E-2</v>
+      </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
+      <c r="R12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="20">
+        <v>0.11768699843228224</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:34" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="C13" s="6">
-        <v>2.08</v>
+        <v>0.33</v>
       </c>
       <c r="D13" s="6">
-        <v>1.79</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="E13" s="6">
-        <v>2.39</v>
+        <v>5.18</v>
       </c>
       <c r="F13" s="6">
-        <v>0.71</v>
+        <v>5.05</v>
       </c>
       <c r="G13" s="6">
-        <v>10.33</v>
+        <v>12.34</v>
       </c>
       <c r="H13" s="6">
-        <v>5.44</v>
+        <v>13.67</v>
       </c>
       <c r="I13" s="6">
-        <v>5.57</v>
+        <v>5.08</v>
       </c>
       <c r="J13" s="6">
-        <v>6.41</v>
+        <v>3.32</v>
       </c>
       <c r="K13" s="6">
-        <v>2.35</v>
-      </c>
-      <c r="L13" s="6"/>
+        <v>0.91</v>
+      </c>
+      <c r="L13" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>4.2630375320890625E-2</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
     </row>
-    <row r="14" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B14" s="6">
-        <v>6.08</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C14" s="6">
-        <v>-0.38</v>
+        <v>2.27</v>
       </c>
       <c r="D14" s="6">
-        <v>-0.02</v>
+        <v>3.36</v>
       </c>
       <c r="E14" s="6">
-        <v>1.9</v>
+        <v>2.91</v>
       </c>
       <c r="F14" s="6">
-        <v>2.15</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="G14" s="6">
-        <v>3.78</v>
+        <v>11.01</v>
       </c>
       <c r="H14" s="6">
-        <v>2.11</v>
+        <v>14.4</v>
       </c>
       <c r="I14" s="6">
-        <v>4.72</v>
+        <v>5.09</v>
       </c>
       <c r="J14" s="6">
-        <v>3.36</v>
+        <v>0.6</v>
       </c>
       <c r="K14" s="6">
-        <v>-1.74</v>
-      </c>
-      <c r="L14" s="6"/>
+        <v>1.47</v>
+      </c>
+      <c r="L14" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>4.2084823867993081E-2</v>
+      </c>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
+      <c r="S14" s="29"/>
+      <c r="W14" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="25"/>
     </row>
-    <row r="15" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:34" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B15" s="6">
-        <v>5.73</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6">
-        <v>12.19</v>
+        <v>6.18</v>
       </c>
       <c r="D15" s="6">
-        <v>7.76</v>
+        <v>13.74</v>
       </c>
       <c r="E15" s="6">
-        <v>7.23</v>
+        <v>6.45</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>6.51</v>
       </c>
       <c r="G15" s="6">
-        <v>12.33</v>
+        <v>14.9</v>
       </c>
       <c r="H15" s="6">
-        <v>3.36</v>
+        <v>4.63</v>
       </c>
       <c r="I15" s="6">
-        <v>1.45</v>
+        <v>3.17</v>
       </c>
       <c r="J15" s="6">
-        <v>-0.01</v>
+        <v>2.29</v>
       </c>
       <c r="K15" s="6">
-        <v>14.08</v>
-      </c>
-      <c r="L15" s="6"/>
+        <v>2.34</v>
+      </c>
+      <c r="L15" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>4.1826270452910326E-2</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="32"/>
     </row>
-    <row r="16" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <v>-1.56</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B16" s="9"/>
       <c r="C16" s="6">
-        <v>-0.99</v>
+        <v>3.84</v>
       </c>
       <c r="D16" s="6">
-        <v>-1.1399999999999999</v>
+        <v>2.84</v>
       </c>
       <c r="E16" s="6">
-        <v>3.14</v>
+        <v>1.67</v>
       </c>
       <c r="F16" s="6">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="G16" s="6">
-        <v>6.12</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="H16" s="6">
-        <v>7.46</v>
+        <v>12.83</v>
       </c>
       <c r="I16" s="6">
-        <v>2.85</v>
+        <v>-1.87</v>
       </c>
       <c r="J16" s="6">
-        <v>5.0199999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="K16" s="6">
-        <v>-1.95</v>
-      </c>
-      <c r="L16" s="6"/>
+        <v>2.77</v>
+      </c>
+      <c r="L16" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>4.0807128401727337E-2</v>
+      </c>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="28"/>
     </row>
     <row r="17" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6">
-        <v>2.98</v>
+        <v>-2.76</v>
       </c>
       <c r="C17" s="6">
-        <v>-1.49</v>
+        <v>2.92</v>
       </c>
       <c r="D17" s="6">
-        <v>1.75</v>
+        <v>0.15</v>
       </c>
       <c r="E17" s="6">
-        <v>4.8600000000000003</v>
+        <v>6.1</v>
       </c>
       <c r="F17" s="6">
-        <v>4.38</v>
+        <v>2.88</v>
       </c>
       <c r="G17" s="6">
-        <v>5.8</v>
+        <v>7.38</v>
       </c>
       <c r="H17" s="6">
-        <v>9.2799999999999994</v>
+        <v>9.67</v>
       </c>
       <c r="I17" s="6">
-        <v>4.34</v>
+        <v>2.77</v>
       </c>
       <c r="J17" s="6">
-        <v>4.01</v>
+        <v>0.87</v>
       </c>
       <c r="K17" s="6">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="L17" s="6"/>
+        <v>-3.21</v>
+      </c>
+      <c r="L17" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.9587221423080458E-2</v>
+      </c>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B18" s="6">
-        <v>1.35</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="C18" s="6">
-        <v>-1</v>
+        <v>-1.28</v>
       </c>
       <c r="D18" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E18" s="6">
-        <v>2.4900000000000002</v>
+        <v>1.17</v>
       </c>
       <c r="F18" s="6">
-        <v>3.28</v>
+        <v>2.19</v>
       </c>
       <c r="G18" s="6">
-        <v>5.35</v>
+        <v>9.51</v>
       </c>
       <c r="H18" s="6">
-        <v>8.98</v>
+        <v>9.41</v>
       </c>
       <c r="I18" s="6">
-        <v>5.21</v>
+        <v>6.06</v>
       </c>
       <c r="J18" s="6">
-        <v>5.19</v>
+        <v>3.99</v>
       </c>
       <c r="K18" s="6">
-        <v>-3.06</v>
-      </c>
-      <c r="L18" s="6"/>
+        <v>7.72</v>
+      </c>
+      <c r="L18" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.9315123044446912E-2</v>
+      </c>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
@@ -2436,765 +4775,826 @@
       <c r="K19" s="6">
         <v>0.57999999999999996</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.7459578214389978E-2</v>
+      </c>
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
     <row r="20" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B20" s="6">
-        <v>-2.61</v>
+        <v>0.59</v>
       </c>
       <c r="C20" s="6">
-        <v>1.19</v>
+        <v>-8.6300000000000008</v>
       </c>
       <c r="D20" s="6">
-        <v>1.01</v>
+        <v>2.33</v>
       </c>
       <c r="E20" s="6">
-        <v>0.57999999999999996</v>
+        <v>1.47</v>
       </c>
       <c r="F20" s="6">
-        <v>1.89</v>
+        <v>4.54</v>
       </c>
       <c r="G20" s="6">
-        <v>6.33</v>
+        <v>1.7</v>
       </c>
       <c r="H20" s="6">
-        <v>0.93</v>
+        <v>0.31</v>
       </c>
       <c r="I20" s="6">
-        <v>-0.13</v>
+        <v>5.89</v>
       </c>
       <c r="J20" s="6">
-        <v>1.92</v>
+        <v>3.27</v>
       </c>
       <c r="K20" s="6">
-        <v>2.63</v>
-      </c>
-      <c r="L20" s="6"/>
+        <v>3.14</v>
+      </c>
+      <c r="L20" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.7404797820600508E-2</v>
+      </c>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B21" s="6">
-        <v>3.47</v>
+        <v>2.29</v>
       </c>
       <c r="C21" s="6">
-        <v>3.94</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D21" s="6">
-        <v>4.3499999999999996</v>
+        <v>3.08</v>
       </c>
       <c r="E21" s="6">
-        <v>3.59</v>
+        <v>3.29</v>
       </c>
       <c r="F21" s="6">
-        <v>3.51</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="G21" s="6">
-        <v>2.77</v>
+        <v>14.1</v>
       </c>
       <c r="H21" s="6">
-        <v>10.41</v>
+        <v>10.15</v>
       </c>
       <c r="I21" s="6">
-        <v>7.23</v>
+        <v>4.99</v>
       </c>
       <c r="J21" s="6">
-        <v>5.26</v>
+        <v>3.99</v>
       </c>
       <c r="K21" s="6">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="L21" s="6"/>
+        <v>3.46</v>
+      </c>
+      <c r="L21" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.6772028771880405E-2</v>
+      </c>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1.58</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="6">
-        <v>2.25</v>
+        <v>5.53</v>
       </c>
       <c r="D22" s="6">
-        <v>2.5299999999999998</v>
+        <v>3.62</v>
       </c>
       <c r="E22" s="6">
-        <v>2.82</v>
+        <v>2.09</v>
       </c>
       <c r="F22" s="6">
-        <v>4.13</v>
+        <v>0.6</v>
       </c>
       <c r="G22" s="6">
-        <v>10.119999999999999</v>
+        <v>-3.69</v>
       </c>
       <c r="H22" s="6">
-        <v>8.27</v>
+        <v>5.25</v>
       </c>
       <c r="I22" s="6">
-        <v>-7.34</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="J22" s="6">
-        <v>4.59</v>
+        <v>5.94</v>
       </c>
       <c r="K22" s="6">
-        <v>12.19</v>
-      </c>
-      <c r="L22" s="6"/>
+        <v>1.62</v>
+      </c>
+      <c r="L22" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.6252448193191039E-2</v>
+      </c>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
     </row>
     <row r="23" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B23" s="6">
-        <v>-11.57</v>
+        <v>1.84</v>
       </c>
       <c r="C23" s="6">
-        <v>-2.66</v>
+        <v>3.7</v>
       </c>
       <c r="D23" s="6">
-        <v>0.3</v>
+        <v>4.49</v>
       </c>
       <c r="E23" s="6">
-        <v>4.8499999999999996</v>
+        <v>5.26</v>
       </c>
       <c r="F23" s="6">
-        <v>6.73</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="G23" s="6">
-        <v>11.65</v>
+        <v>10.52</v>
       </c>
       <c r="H23" s="6">
-        <v>10.71</v>
+        <v>11.83</v>
       </c>
       <c r="I23" s="6">
-        <v>3.5</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J23" s="6">
-        <v>5.6</v>
+        <v>2.67</v>
       </c>
       <c r="K23" s="6">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="L23" s="6"/>
+        <v>0.81</v>
+      </c>
+      <c r="L23" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.4425933538540371E-2</v>
+      </c>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B24" s="6">
-        <v>1.03</v>
+        <v>-0.9</v>
       </c>
       <c r="C24" s="6">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="D24" s="6">
-        <v>5.49</v>
+        <v>3.33</v>
       </c>
       <c r="E24" s="6">
-        <v>4.8099999999999996</v>
+        <v>3.06</v>
       </c>
       <c r="F24" s="6">
-        <v>4.12</v>
+        <v>3.95</v>
       </c>
       <c r="G24" s="6">
-        <v>4.95</v>
+        <v>4.76</v>
       </c>
       <c r="H24" s="6">
-        <v>9.39</v>
+        <v>-2.59</v>
       </c>
       <c r="I24" s="6">
-        <v>3.29</v>
+        <v>6.82</v>
       </c>
       <c r="J24" s="6">
-        <v>3.74</v>
+        <v>10.34</v>
       </c>
       <c r="K24" s="6">
-        <v>2.95</v>
-      </c>
-      <c r="L24" s="6"/>
+        <v>3.64</v>
+      </c>
+      <c r="L24" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.4108809712448195E-2</v>
+      </c>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B25" s="6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="C25" s="6">
-        <v>3.16</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="6">
-        <v>-1.02</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E25" s="6">
-        <v>3.46</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F25" s="6">
-        <v>2.74</v>
+        <v>3.28</v>
       </c>
       <c r="G25" s="6">
-        <v>4.55</v>
+        <v>5.35</v>
       </c>
       <c r="H25" s="6">
-        <v>4.8</v>
+        <v>8.98</v>
       </c>
       <c r="I25" s="6">
-        <v>-4.29</v>
+        <v>5.21</v>
       </c>
       <c r="J25" s="6">
-        <v>4.63</v>
+        <v>5.19</v>
       </c>
       <c r="K25" s="6">
-        <v>1.84</v>
-      </c>
-      <c r="L25" s="6"/>
+        <v>-3.06</v>
+      </c>
+      <c r="L25" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.389316155214795E-2</v>
+      </c>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
     <row r="26" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B26" s="6">
-        <v>2.57</v>
+        <v>15.52</v>
       </c>
       <c r="C26" s="6">
-        <v>3.02</v>
+        <v>6.42</v>
       </c>
       <c r="D26" s="6">
-        <v>0.26</v>
+        <v>6.73</v>
       </c>
       <c r="E26" s="6">
-        <v>3.89</v>
+        <v>5.3</v>
       </c>
       <c r="F26" s="6">
-        <v>4.59</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="G26" s="6">
-        <v>6.02</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H26" s="6">
-        <v>4.37</v>
+        <v>12.8</v>
       </c>
       <c r="I26" s="6">
-        <v>-0.28999999999999998</v>
+        <v>7.31</v>
       </c>
       <c r="J26" s="6">
-        <v>4.0199999999999996</v>
+        <v>6.97</v>
       </c>
       <c r="K26" s="6">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="L26" s="6"/>
+        <v>5.73</v>
+      </c>
+      <c r="L26" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.3693621057998495E-2</v>
+      </c>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
     <row r="27" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6">
-        <v>11.22</v>
+        <v>0.86</v>
       </c>
       <c r="C27" s="6">
-        <v>3.88</v>
+        <v>1.19</v>
       </c>
       <c r="D27" s="6">
-        <v>2.94</v>
+        <v>2.17</v>
       </c>
       <c r="E27" s="6">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="F27" s="6">
-        <v>4.8600000000000003</v>
+        <v>4.84</v>
       </c>
       <c r="G27" s="6">
-        <v>9.8699999999999992</v>
+        <v>10.08</v>
       </c>
       <c r="H27" s="6">
-        <v>4.6900000000000004</v>
+        <v>5.69</v>
       </c>
       <c r="I27" s="6">
+        <v>-1.93</v>
+      </c>
+      <c r="J27" s="6">
         <v>7.02</v>
       </c>
-      <c r="J27" s="6">
-        <v>4.91</v>
-      </c>
       <c r="K27" s="6">
-        <v>4.7</v>
-      </c>
-      <c r="L27" s="6"/>
+        <v>1.46</v>
+      </c>
+      <c r="L27" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.3239496085229685E-2</v>
+      </c>
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
     <row r="28" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B28" s="6">
-        <v>2.48</v>
+        <v>-1.56</v>
       </c>
       <c r="C28" s="6">
-        <v>-0.45</v>
+        <v>-0.99</v>
       </c>
       <c r="D28" s="6">
-        <v>-0.2</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="E28" s="6">
-        <v>3.75</v>
+        <v>3.14</v>
       </c>
       <c r="F28" s="6">
-        <v>5.33</v>
+        <v>3.2</v>
       </c>
       <c r="G28" s="6">
-        <v>37</v>
+        <v>6.12</v>
       </c>
       <c r="H28" s="6">
-        <v>23.17</v>
+        <v>7.46</v>
       </c>
       <c r="I28" s="6">
-        <v>-0.01</v>
+        <v>2.85</v>
       </c>
       <c r="J28" s="6">
-        <v>2.67</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="K28" s="6">
-        <v>2.68</v>
-      </c>
-      <c r="L28" s="6"/>
+        <v>-1.95</v>
+      </c>
+      <c r="L28" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.2554884426150246E-2</v>
+      </c>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
     <row r="29" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6">
-        <v>1.84</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="6">
-        <v>3.7</v>
+        <v>-7.09</v>
       </c>
       <c r="D29" s="6">
-        <v>4.49</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="E29" s="6">
-        <v>5.26</v>
+        <v>0.9</v>
       </c>
       <c r="F29" s="6">
-        <v>4.6399999999999997</v>
+        <v>2.9</v>
       </c>
       <c r="G29" s="6">
-        <v>10.52</v>
+        <v>0.86</v>
       </c>
       <c r="H29" s="6">
-        <v>11.83</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="I29" s="6">
-        <v>2.4300000000000002</v>
+        <v>-1.05</v>
       </c>
       <c r="J29" s="6">
-        <v>2.67</v>
+        <v>0.73</v>
       </c>
       <c r="K29" s="6">
-        <v>0.81</v>
-      </c>
-      <c r="L29" s="6"/>
+        <v>5.37</v>
+      </c>
+      <c r="L29" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.2552309280697321E-2</v>
+      </c>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="B30" s="6">
+        <v>8.15</v>
+      </c>
       <c r="C30" s="6">
-        <v>5.53</v>
+        <v>6.3</v>
       </c>
       <c r="D30" s="6">
-        <v>3.62</v>
+        <v>4.51</v>
       </c>
       <c r="E30" s="6">
-        <v>2.09</v>
+        <v>4.68</v>
       </c>
       <c r="F30" s="6">
-        <v>0.6</v>
+        <v>4.57</v>
       </c>
       <c r="G30" s="6">
-        <v>-3.69</v>
+        <v>8.99</v>
       </c>
       <c r="H30" s="6">
-        <v>5.25</v>
+        <v>8.18</v>
       </c>
       <c r="I30" s="6">
-        <v>9.7899999999999991</v>
+        <v>-2.2799999999999998</v>
       </c>
       <c r="J30" s="6">
-        <v>5.94</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="K30" s="6">
-        <v>1.62</v>
-      </c>
-      <c r="L30" s="6"/>
+        <v>2.04</v>
+      </c>
+      <c r="L30" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.2507046928320016E-2</v>
+      </c>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
     <row r="31" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="6">
-        <v>-0.9</v>
+        <v>-1.66</v>
       </c>
       <c r="C31" s="6">
-        <v>3.2</v>
+        <v>4.92</v>
       </c>
       <c r="D31" s="6">
-        <v>3.33</v>
+        <v>5.34</v>
       </c>
       <c r="E31" s="6">
-        <v>3.06</v>
+        <v>5.21</v>
       </c>
       <c r="F31" s="6">
-        <v>3.95</v>
+        <v>6.92</v>
       </c>
       <c r="G31" s="6">
-        <v>4.76</v>
+        <v>10.49</v>
       </c>
       <c r="H31" s="6">
-        <v>-2.59</v>
+        <v>9.61</v>
       </c>
       <c r="I31" s="6">
-        <v>6.82</v>
+        <v>7.02</v>
       </c>
       <c r="J31" s="6">
-        <v>10.34</v>
+        <v>5.69</v>
       </c>
       <c r="K31" s="6">
-        <v>3.64</v>
-      </c>
-      <c r="L31" s="6"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L31" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.1380033460785224E-2</v>
+      </c>
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
     <row r="32" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6">
-        <v>-1.66</v>
+        <v>6.24</v>
       </c>
       <c r="C32" s="6">
-        <v>4.92</v>
+        <v>7.9</v>
       </c>
       <c r="D32" s="6">
-        <v>5.34</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="E32" s="6">
-        <v>5.21</v>
+        <v>6.15</v>
       </c>
       <c r="F32" s="6">
-        <v>6.92</v>
+        <v>4.3</v>
       </c>
       <c r="G32" s="6">
-        <v>10.49</v>
+        <v>10.82</v>
       </c>
       <c r="H32" s="6">
-        <v>9.61</v>
+        <v>7.43</v>
       </c>
       <c r="I32" s="6">
-        <v>7.02</v>
+        <v>5.14</v>
       </c>
       <c r="J32" s="6">
-        <v>5.69</v>
+        <v>1.67</v>
       </c>
       <c r="K32" s="6">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="L32" s="6"/>
+        <v>-0.03</v>
+      </c>
+      <c r="L32" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.1016900231970321E-2</v>
+      </c>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B33" s="6">
-        <v>2.4900000000000002</v>
+        <v>2.75</v>
       </c>
       <c r="C33" s="6">
-        <v>2.27</v>
+        <v>3.42</v>
       </c>
       <c r="D33" s="6">
-        <v>3.36</v>
+        <v>0.62</v>
       </c>
       <c r="E33" s="6">
-        <v>2.91</v>
+        <v>2.93</v>
       </c>
       <c r="F33" s="6">
-        <v>4.3600000000000003</v>
+        <v>4.2</v>
       </c>
       <c r="G33" s="6">
-        <v>11.01</v>
+        <v>8.06</v>
       </c>
       <c r="H33" s="6">
-        <v>14.4</v>
+        <v>10.84</v>
       </c>
       <c r="I33" s="6">
-        <v>5.09</v>
+        <v>1.57</v>
       </c>
       <c r="J33" s="6">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="K33" s="6">
-        <v>1.47</v>
-      </c>
-      <c r="L33" s="6"/>
+        <v>3.25</v>
+      </c>
+      <c r="L33" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>3.0748673142104842E-2</v>
+      </c>
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
     </row>
     <row r="34" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B34" s="6">
-        <v>8.9600000000000009</v>
+        <v>2.33</v>
       </c>
       <c r="C34" s="6">
-        <v>5.92</v>
+        <v>2.8</v>
       </c>
       <c r="D34" s="6">
-        <v>4.58</v>
+        <v>2.1</v>
       </c>
       <c r="E34" s="6">
-        <v>6.66</v>
+        <v>2.98</v>
       </c>
       <c r="F34" s="6">
-        <v>4.8899999999999997</v>
+        <v>3.97</v>
       </c>
       <c r="G34" s="6">
-        <v>11.81</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="H34" s="6">
-        <v>3.58</v>
+        <v>9.33</v>
       </c>
       <c r="I34" s="6">
-        <v>-1.32</v>
+        <v>3.79</v>
       </c>
       <c r="J34" s="6">
-        <v>17.670000000000002</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K34" s="6">
-        <v>7.84</v>
-      </c>
-      <c r="L34" s="6"/>
+        <v>1.49</v>
+      </c>
+      <c r="L34" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.9776811447836386E-2</v>
+      </c>
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
     </row>
     <row r="35" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B35" s="6">
-        <v>6.24</v>
+        <v>4.5</v>
       </c>
       <c r="C35" s="6">
-        <v>7.9</v>
+        <v>8.09</v>
       </c>
       <c r="D35" s="6">
-        <v>8.9499999999999993</v>
+        <v>6.83</v>
       </c>
       <c r="E35" s="6">
-        <v>6.15</v>
+        <v>5.54</v>
       </c>
       <c r="F35" s="6">
-        <v>4.3</v>
+        <v>5.16</v>
       </c>
       <c r="G35" s="6">
-        <v>10.82</v>
+        <v>10.75</v>
       </c>
       <c r="H35" s="6">
-        <v>7.43</v>
+        <v>0.5</v>
       </c>
       <c r="I35" s="6">
-        <v>5.14</v>
+        <v>1.36</v>
       </c>
       <c r="J35" s="6">
-        <v>1.67</v>
+        <v>3.56</v>
       </c>
       <c r="K35" s="6">
-        <v>-0.03</v>
-      </c>
-      <c r="L35" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="L35" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.9334193358604547E-2</v>
+      </c>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
     </row>
     <row r="36" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="8" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B36" s="6">
-        <v>-2.76</v>
+        <v>2.41</v>
       </c>
       <c r="C36" s="6">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="D36" s="6">
-        <v>0.15</v>
+        <v>3.16</v>
       </c>
       <c r="E36" s="6">
-        <v>6.1</v>
+        <v>3.33</v>
       </c>
       <c r="F36" s="6">
-        <v>2.88</v>
+        <v>5.76</v>
       </c>
       <c r="G36" s="6">
-        <v>7.38</v>
+        <v>10.38</v>
       </c>
       <c r="H36" s="6">
-        <v>9.67</v>
+        <v>10.41</v>
       </c>
       <c r="I36" s="6">
-        <v>2.77</v>
+        <v>7.35</v>
       </c>
       <c r="J36" s="6">
-        <v>0.87</v>
+        <v>7.13</v>
       </c>
       <c r="K36" s="6">
-        <v>-3.21</v>
-      </c>
-      <c r="L36" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="L36" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.8421118908304784E-2</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
     </row>
     <row r="37" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B37" s="6">
-        <v>2.52</v>
+        <v>1.95</v>
       </c>
       <c r="C37" s="6">
-        <v>2.69</v>
+        <v>2.08</v>
       </c>
       <c r="D37" s="6">
-        <v>2.78</v>
+        <v>1.79</v>
       </c>
       <c r="E37" s="6">
-        <v>3.39</v>
+        <v>2.39</v>
       </c>
       <c r="F37" s="6">
-        <v>4.51</v>
+        <v>0.71</v>
       </c>
       <c r="G37" s="6">
-        <v>7.87</v>
+        <v>10.33</v>
       </c>
       <c r="H37" s="6">
-        <v>6.6</v>
+        <v>5.44</v>
       </c>
       <c r="I37" s="6">
-        <v>2.36</v>
+        <v>5.57</v>
       </c>
       <c r="J37" s="6">
-        <v>4.59</v>
+        <v>6.41</v>
       </c>
       <c r="K37" s="6">
-        <v>4.26</v>
-      </c>
-      <c r="L37" s="6"/>
+        <v>2.35</v>
+      </c>
+      <c r="L37" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.8148030126458223E-2</v>
+      </c>
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B38" s="6">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="C38" s="6">
-        <v>1.19</v>
+        <v>3.16</v>
       </c>
       <c r="D38" s="6">
-        <v>2.17</v>
+        <v>-1.02</v>
       </c>
       <c r="E38" s="6">
-        <v>2.75</v>
+        <v>3.46</v>
       </c>
       <c r="F38" s="6">
-        <v>4.84</v>
+        <v>2.74</v>
       </c>
       <c r="G38" s="6">
-        <v>10.08</v>
+        <v>4.55</v>
       </c>
       <c r="H38" s="6">
-        <v>5.69</v>
+        <v>4.8</v>
       </c>
       <c r="I38" s="6">
-        <v>-1.93</v>
+        <v>-4.29</v>
       </c>
       <c r="J38" s="6">
-        <v>7.02</v>
+        <v>4.63</v>
       </c>
       <c r="K38" s="6">
-        <v>1.46</v>
-      </c>
-      <c r="L38" s="6"/>
+        <v>1.84</v>
+      </c>
+      <c r="L38" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.7927157033969641E-2</v>
+      </c>
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="8" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B39" s="6">
-        <v>8.15</v>
+        <v>2.98</v>
       </c>
       <c r="C39" s="6">
-        <v>6.3</v>
+        <v>-1.49</v>
       </c>
       <c r="D39" s="6">
-        <v>4.51</v>
+        <v>1.75</v>
       </c>
       <c r="E39" s="6">
-        <v>4.68</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F39" s="6">
-        <v>4.57</v>
+        <v>4.38</v>
       </c>
       <c r="G39" s="6">
-        <v>8.99</v>
+        <v>5.8</v>
       </c>
       <c r="H39" s="6">
-        <v>8.18</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="I39" s="6">
-        <v>-2.2799999999999998</v>
+        <v>4.34</v>
       </c>
       <c r="J39" s="6">
-        <v>2.4900000000000002</v>
+        <v>4.01</v>
       </c>
       <c r="K39" s="6">
-        <v>2.04</v>
-      </c>
-      <c r="L39" s="6"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="L39" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.7536368678531296E-2</v>
+      </c>
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
     </row>
@@ -3232,157 +5632,174 @@
       <c r="K40" s="6">
         <v>2.17</v>
       </c>
-      <c r="L40" s="6"/>
+      <c r="L40" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.7073536894909031E-2</v>
+      </c>
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
     </row>
     <row r="41" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B41" s="6">
-        <v>5.12</v>
+        <v>11.22</v>
       </c>
       <c r="C41" s="6">
-        <v>5.09</v>
+        <v>3.88</v>
       </c>
       <c r="D41" s="6">
-        <v>5.88</v>
+        <v>2.94</v>
       </c>
       <c r="E41" s="6">
-        <v>5.18</v>
+        <v>2.93</v>
       </c>
       <c r="F41" s="6">
-        <v>5.55</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G41" s="6">
-        <v>11.09</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="H41" s="6">
-        <v>11.73</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="I41" s="6">
-        <v>7.34</v>
+        <v>7.02</v>
       </c>
       <c r="J41" s="6">
-        <v>6.4</v>
+        <v>4.91</v>
       </c>
       <c r="K41" s="6">
-        <v>5</v>
-      </c>
-      <c r="L41" s="6"/>
+        <v>4.7</v>
+      </c>
+      <c r="L41" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.6749646726639209E-2</v>
+      </c>
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
     </row>
     <row r="42" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="6">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="C42" s="6">
-        <v>4.4400000000000004</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="D42" s="6">
-        <v>4.49</v>
+        <v>3.92</v>
       </c>
       <c r="E42" s="6">
-        <v>1.53</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F42" s="6">
-        <v>3.14</v>
+        <v>5.12</v>
       </c>
       <c r="G42" s="6">
-        <v>10.54</v>
+        <v>10.16</v>
       </c>
       <c r="H42" s="6">
-        <v>13.39</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="I42" s="6">
-        <v>4.1900000000000004</v>
+        <v>4.95</v>
       </c>
       <c r="J42" s="6">
-        <v>-2.59</v>
+        <v>3.05</v>
       </c>
       <c r="K42" s="6">
-        <v>3.89</v>
-      </c>
-      <c r="L42" s="6"/>
+        <v>3.44</v>
+      </c>
+      <c r="L42" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.5251930619261578E-2</v>
+      </c>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
     </row>
     <row r="43" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="B43" s="6">
+        <v>4.88</v>
+      </c>
       <c r="C43" s="6">
-        <v>3.84</v>
+        <v>6.21</v>
       </c>
       <c r="D43" s="6">
-        <v>2.84</v>
+        <v>5.34</v>
       </c>
       <c r="E43" s="6">
-        <v>1.67</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="F43" s="6">
-        <v>3.44</v>
+        <v>3.06</v>
       </c>
       <c r="G43" s="6">
-        <v>9.4700000000000006</v>
+        <v>9.18</v>
       </c>
       <c r="H43" s="6">
-        <v>12.83</v>
+        <v>7.02</v>
       </c>
       <c r="I43" s="6">
-        <v>-1.87</v>
+        <v>0.42</v>
       </c>
       <c r="J43" s="6">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="K43" s="6">
-        <v>2.77</v>
-      </c>
-      <c r="L43" s="6"/>
+        <v>2.7</v>
+      </c>
+      <c r="L43" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.3963933316548839E-2</v>
+      </c>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
     </row>
     <row r="44" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B44" s="6">
-        <v>1.19</v>
+        <v>5.12</v>
       </c>
       <c r="C44" s="6">
-        <v>2.5299999999999998</v>
+        <v>5.09</v>
       </c>
       <c r="D44" s="6">
-        <v>3.92</v>
+        <v>5.88</v>
       </c>
       <c r="E44" s="6">
-        <v>4.8099999999999996</v>
+        <v>5.18</v>
       </c>
       <c r="F44" s="6">
-        <v>5.12</v>
+        <v>5.55</v>
       </c>
       <c r="G44" s="6">
-        <v>10.16</v>
+        <v>11.09</v>
       </c>
       <c r="H44" s="6">
-        <v>8.1300000000000008</v>
+        <v>11.73</v>
       </c>
       <c r="I44" s="6">
-        <v>4.95</v>
+        <v>7.34</v>
       </c>
       <c r="J44" s="6">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="K44" s="6">
-        <v>3.44</v>
-      </c>
-      <c r="L44" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="L44" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.3909404007628463E-2</v>
+      </c>
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
     </row>
@@ -3420,269 +5837,297 @@
       <c r="K45" s="6">
         <v>2.31</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.3397982819038054E-2</v>
+      </c>
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
     </row>
     <row r="46" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B46" s="6">
-        <v>5.88</v>
+        <v>6.08</v>
       </c>
       <c r="C46" s="6">
-        <v>6.44</v>
+        <v>-0.38</v>
       </c>
       <c r="D46" s="6">
-        <v>5.95</v>
+        <v>-0.02</v>
       </c>
       <c r="E46" s="6">
-        <v>19.920000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="F46" s="6">
-        <v>6.01</v>
+        <v>2.15</v>
       </c>
       <c r="G46" s="6">
-        <v>15.21</v>
+        <v>3.78</v>
       </c>
       <c r="H46" s="6">
-        <v>3.11</v>
+        <v>2.11</v>
       </c>
       <c r="I46" s="6">
-        <v>1.39</v>
+        <v>4.72</v>
       </c>
       <c r="J46" s="6">
-        <v>1.98</v>
+        <v>3.36</v>
       </c>
       <c r="K46" s="6">
-        <v>-1.42</v>
-      </c>
-      <c r="L46" s="6"/>
+        <v>-1.74</v>
+      </c>
+      <c r="L46" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.2903196283488466E-2</v>
+      </c>
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
     </row>
     <row r="47" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B47" s="6">
-        <v>2.75</v>
+        <v>3.47</v>
       </c>
       <c r="C47" s="6">
-        <v>3.42</v>
+        <v>3.94</v>
       </c>
       <c r="D47" s="6">
-        <v>0.62</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="E47" s="6">
-        <v>2.93</v>
+        <v>3.59</v>
       </c>
       <c r="F47" s="6">
-        <v>4.2</v>
+        <v>3.51</v>
       </c>
       <c r="G47" s="6">
-        <v>8.06</v>
+        <v>2.77</v>
       </c>
       <c r="H47" s="6">
-        <v>10.84</v>
+        <v>10.41</v>
       </c>
       <c r="I47" s="6">
-        <v>1.57</v>
+        <v>7.23</v>
       </c>
       <c r="J47" s="6">
-        <v>0.75</v>
+        <v>5.26</v>
       </c>
       <c r="K47" s="6">
-        <v>3.25</v>
-      </c>
-      <c r="L47" s="6"/>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="L47" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.1824793240715953E-2</v>
+      </c>
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
     </row>
     <row r="48" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="B48" s="6">
+        <v>-2.61</v>
+      </c>
       <c r="C48" s="6">
-        <v>4.37</v>
+        <v>1.19</v>
       </c>
       <c r="D48" s="6">
-        <v>3.38</v>
+        <v>1.01</v>
       </c>
       <c r="E48" s="6">
-        <v>2.38</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F48" s="6">
-        <v>2.95</v>
+        <v>1.89</v>
       </c>
       <c r="G48" s="6">
-        <v>6.7</v>
+        <v>6.33</v>
       </c>
       <c r="H48" s="6">
-        <v>11.65</v>
+        <v>0.93</v>
       </c>
       <c r="I48" s="6">
-        <v>7.55</v>
+        <v>-0.13</v>
       </c>
       <c r="J48" s="6">
-        <v>-11.99</v>
+        <v>1.92</v>
       </c>
       <c r="K48" s="6">
-        <v>-14.37</v>
-      </c>
-      <c r="L48" s="6"/>
+        <v>2.63</v>
+      </c>
+      <c r="L48" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.1408418904720637E-2</v>
+      </c>
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
     </row>
     <row r="49" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B49" s="6">
-        <v>4.5</v>
+        <v>1.03</v>
       </c>
       <c r="C49" s="6">
-        <v>8.09</v>
+        <v>3.53</v>
       </c>
       <c r="D49" s="6">
-        <v>6.83</v>
+        <v>5.49</v>
       </c>
       <c r="E49" s="6">
-        <v>5.54</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F49" s="6">
-        <v>5.16</v>
+        <v>4.12</v>
       </c>
       <c r="G49" s="6">
-        <v>10.75</v>
+        <v>4.95</v>
       </c>
       <c r="H49" s="6">
-        <v>0.5</v>
+        <v>9.39</v>
       </c>
       <c r="I49" s="6">
-        <v>1.36</v>
+        <v>3.29</v>
       </c>
       <c r="J49" s="6">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="K49" s="6">
-        <v>3</v>
-      </c>
-      <c r="L49" s="6"/>
+        <v>2.95</v>
+      </c>
+      <c r="L49" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>2.060878453475604E-2</v>
+      </c>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
     </row>
     <row r="50" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B50" s="6">
-        <v>0.59</v>
+        <v>5.01</v>
       </c>
       <c r="C50" s="6">
-        <v>-8.6300000000000008</v>
+        <v>4.01</v>
       </c>
       <c r="D50" s="6">
-        <v>2.33</v>
+        <v>3.33</v>
       </c>
       <c r="E50" s="6">
-        <v>1.47</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F50" s="6">
-        <v>4.54</v>
+        <v>4.37</v>
       </c>
       <c r="G50" s="6">
-        <v>1.7</v>
+        <v>7.43</v>
       </c>
       <c r="H50" s="6">
-        <v>0.31</v>
+        <v>8.85</v>
       </c>
       <c r="I50" s="6">
-        <v>5.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="J50" s="6">
-        <v>3.27</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="K50" s="6">
-        <v>3.14</v>
-      </c>
-      <c r="L50" s="6"/>
+        <v>2.91</v>
+      </c>
+      <c r="L50" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>1.9033888199734707E-2</v>
+      </c>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
     </row>
     <row r="51" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2.57</v>
+      </c>
       <c r="C51" s="6">
-        <v>-7.09</v>
+        <v>3.02</v>
       </c>
       <c r="D51" s="6">
-        <v>2.2799999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="E51" s="6">
-        <v>0.9</v>
+        <v>3.89</v>
       </c>
       <c r="F51" s="6">
-        <v>2.9</v>
+        <v>4.59</v>
       </c>
       <c r="G51" s="6">
-        <v>0.86</v>
+        <v>6.02</v>
       </c>
       <c r="H51" s="6">
-        <v>2.2799999999999998</v>
+        <v>4.37</v>
       </c>
       <c r="I51" s="6">
-        <v>-1.05</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="J51" s="6">
-        <v>0.73</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="K51" s="6">
-        <v>5.37</v>
-      </c>
-      <c r="L51" s="6"/>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="L51" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>1.8640804703660196E-2</v>
+      </c>
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
     </row>
     <row r="52" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="8" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B52" s="6">
-        <v>5.41</v>
+        <v>2.52</v>
       </c>
       <c r="C52" s="6">
-        <v>-1.83</v>
+        <v>2.69</v>
       </c>
       <c r="D52" s="6">
-        <v>1.69</v>
+        <v>2.78</v>
       </c>
       <c r="E52" s="6">
-        <v>4.83</v>
+        <v>3.39</v>
       </c>
       <c r="F52" s="6">
-        <v>0</v>
+        <v>4.51</v>
       </c>
       <c r="G52" s="6">
-        <v>3.31</v>
+        <v>7.87</v>
       </c>
       <c r="H52" s="6">
-        <v>8.3000000000000007</v>
+        <v>6.6</v>
       </c>
       <c r="I52" s="6">
-        <v>7.68</v>
+        <v>2.36</v>
       </c>
       <c r="J52" s="6">
-        <v>23.84</v>
+        <v>4.59</v>
       </c>
       <c r="K52" s="6">
-        <v>7.42</v>
-      </c>
-      <c r="L52" s="6"/>
+        <v>4.26</v>
+      </c>
+      <c r="L52" s="20">
+        <f>_xlfn.STDEV.P(Table1[[#This Row],[2016]:[2025]]) * 1%</f>
+        <v>1.7499374274527649E-2</v>
+      </c>
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
     </row>
@@ -3698,7 +6143,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+      <c r="L53" s="21"/>
       <c r="M53" s="7"/>
       <c r="N53" s="7"/>
     </row>
@@ -3714,7 +6159,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+      <c r="L54" s="21"/>
       <c r="M54" s="7"/>
       <c r="N54" s="7"/>
     </row>
@@ -3849,9 +6294,11 @@
       <c r="K64" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="W14:AH16"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="B3:K52">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -3869,8 +6316,10 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>